--- a/dnd-dataframe.xlsx
+++ b/dnd-dataframe.xlsx
@@ -5,161 +5,304 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taylo\django\UPDATED_NLP_COURSE\09-bookingentertainment\new-emotions\be-fiNALS\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taylo\django\UPDATED_NLP_COURSE\09-bookingentertainment\new-emotions\be-fiNALS\rec-syst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C333677-05FD-46DA-8B1E-27AE55892184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9989B61A-F833-48C3-9488-6789D806F6B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="4800" windowWidth="29100" windowHeight="13410" xr2:uid="{947CC2C5-DD69-44F2-88AC-2F2F3869BAEB}"/>
+    <workbookView xWindow="2535" yWindow="2940" windowWidth="28800" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dnd-dataframe" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>herotype</t>
+  </si>
   <si>
     <t>weapons</t>
   </si>
   <si>
+    <t>spells</t>
+  </si>
+  <si>
+    <t>bam</t>
+  </si>
+  <si>
+    <t>Bard</t>
+  </si>
+  <si>
     <t>Dagger, sling, club</t>
   </si>
   <si>
+    <t xml:space="preserve">Transmutation, Enchantment </t>
+  </si>
+  <si>
+    <t>niem</t>
+  </si>
+  <si>
+    <t>Sorcerer</t>
+  </si>
+  <si>
     <t>light crossbow, battleaxe</t>
   </si>
   <si>
+    <t xml:space="preserve">Necromancy </t>
+  </si>
+  <si>
+    <t>aem</t>
+  </si>
+  <si>
+    <t>Paladin</t>
+  </si>
+  <si>
     <t>Greataxe</t>
   </si>
   <si>
+    <t>Abjuration, Conjuration</t>
+  </si>
+  <si>
+    <t>yaeks</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>club, battleaxe</t>
+  </si>
+  <si>
+    <t>Conjuration, Evocation, Transmutation</t>
+  </si>
+  <si>
+    <t>jeeks</t>
+  </si>
+  <si>
+    <t>Druid</t>
+  </si>
+  <si>
+    <t>Dagger, Greataxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evocation, Transmutation, Necromancy </t>
+  </si>
+  <si>
+    <t>aez</t>
+  </si>
+  <si>
+    <t>club, light crossbow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evocation, Enchantment </t>
+  </si>
+  <si>
+    <t>sax</t>
+  </si>
+  <si>
+    <t>light crossbow, battleaxe,  Dagger, sling, club</t>
+  </si>
+  <si>
+    <t>eert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmutation, Necromancy </t>
+  </si>
+  <si>
+    <t>wuc</t>
+  </si>
+  <si>
+    <t>yac</t>
+  </si>
+  <si>
+    <t>Jocelyn Churchill</t>
+  </si>
+  <si>
     <t>club</t>
   </si>
   <si>
-    <t>club, battleaxe</t>
-  </si>
-  <si>
-    <t>Dagger, Greataxe</t>
-  </si>
-  <si>
-    <t>club, light crossbow</t>
-  </si>
-  <si>
-    <t>spells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmutation, Enchantment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necromancy </t>
-  </si>
-  <si>
-    <t>Abjuration, Conjuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evocation, Transmutation, Necromancy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evocation, Enchantment </t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Bard</t>
-  </si>
-  <si>
-    <t>Sorcerer</t>
-  </si>
-  <si>
-    <t>Paladin</t>
-  </si>
-  <si>
-    <t>Druid</t>
-  </si>
-  <si>
-    <t>Rogue</t>
-  </si>
-  <si>
-    <t>light crossbow, battleaxe,  Dagger, sling, club</t>
+    <t>Robert Perry</t>
+  </si>
+  <si>
+    <t>Tim Carlton</t>
   </si>
   <si>
     <t>light crossbow, sling</t>
   </si>
   <si>
-    <t>Conjuration, Evocation, Transmutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmutation, Necromancy </t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>bam</t>
-  </si>
-  <si>
-    <t>niem</t>
-  </si>
-  <si>
-    <t>aem</t>
-  </si>
-  <si>
-    <t>yaeks</t>
-  </si>
-  <si>
-    <t>jeeks</t>
-  </si>
-  <si>
-    <t>aez</t>
-  </si>
-  <si>
-    <t>sax</t>
-  </si>
-  <si>
-    <t>eert</t>
-  </si>
-  <si>
-    <t>wuc</t>
-  </si>
-  <si>
-    <t>yac</t>
-  </si>
-  <si>
-    <t>Jocelyn Churchill</t>
-  </si>
-  <si>
-    <t>Robert Perry</t>
-  </si>
-  <si>
-    <t>Tim Carlton</t>
-  </si>
-  <si>
     <t>Rolf Rylan</t>
   </si>
   <si>
     <t>Manfred Watsons</t>
+  </si>
+  <si>
+    <t>Kildrak Caebrek</t>
+  </si>
+  <si>
+    <t>Erias Silverstone</t>
+  </si>
+  <si>
+    <t>sling, light crossbow</t>
+  </si>
+  <si>
+    <t>Baern Rakankrak</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Traubon Durthane</t>
+  </si>
+  <si>
+    <t>light crossbow</t>
+  </si>
+  <si>
+    <t>Oskar Strakeln</t>
+  </si>
+  <si>
+    <t>sling</t>
+  </si>
+  <si>
+    <t>Braak Presley</t>
+  </si>
+  <si>
+    <t>Odorr Spalding</t>
+  </si>
+  <si>
+    <t>Dench Sydney</t>
+  </si>
+  <si>
+    <t>Zed Ryley</t>
+  </si>
+  <si>
+    <t>Evocation</t>
+  </si>
+  <si>
+    <t>Ugarth Ainsley</t>
+  </si>
+  <si>
+    <t>Transmutation</t>
+  </si>
+  <si>
+    <t>Jantroph</t>
+  </si>
+  <si>
+    <t>Abjuration</t>
+  </si>
+  <si>
+    <t>Qualnus</t>
+  </si>
+  <si>
+    <t>Orox</t>
+  </si>
+  <si>
+    <t>sling, club</t>
+  </si>
+  <si>
+    <t>Irv</t>
+  </si>
+  <si>
+    <t>Conjuration</t>
+  </si>
+  <si>
+    <t>You ran away from home to follow a minstrel troupe. You have seen what happens when the monsters come out from the dark. You took it upon yourself to become the first line of defense against the evils that lie beyond civilization's borders. You spent time working as a Entertainer.</t>
+  </si>
+  <si>
+    <t>You learned what was right and wrong from your family. While you were growing up, you saw spirits all around you- entities no one else could perceive. You sought out the druids to help you understand the visions and communicate with these beings. Ridaro Amakiir, Neutral Evil Elf Cleric that works as an Explorer Wanderer. Your relationship was friendly. She is alive, but doing poorly due to injury finances relationship.</t>
+  </si>
+  <si>
+    <t>You have always stood up for those who are weaker than you are. You were a prodigy who demonstrated mastery of the arcane arts at an early age. When you became old enough to set out on your own, you did so to learn more magic and expand your power. Myria Swiftwhistle, Neutral Evil Halfling Rogue that works as an Adventurer. Your relationship was friendly. She is alive, but doing poorly due to injury / finances / relationship.</t>
+  </si>
+  <si>
+    <t>You have always stood up for those who are weaker than you are.You used to serve in your religion's bureaucracy but found you needed to work in the world, to bring the message of your faith to the darkest corners of the land. You spent time working as a Folk Hero.</t>
+  </si>
+  <si>
+    <t>A mad old hermit spoke a prophecy when you were born, saying that you would accomplish great things. You picked up a musical instrument one day and instantly discovered that you could play it. You spent time working as a Folk Hero. You made a friend of an adventurer. Lamlis Othronus, Neutral Evil Elf Warlock that works as a Laborer. Your relationship was friendly. He is alive, but doing poorly due to injury / finances / relationship.</t>
+  </si>
+  <si>
+    <t>A parent or one of your relatives was an adventurer, and you were inspired by thir courage. You picked up a musical instrument one day and instantly discovered that you could play it.You met someone important. Lilith Contempt, Neutral Tiefling Monk that works as an Artisan. Your relationship was friendly. She is alive and well.</t>
+  </si>
+  <si>
+    <t>You resented authority in your younger days and saw a life of crime as the best way to fight against tyranny and oppression. You decided to turn your natural lucky streak into the basis of a career, though you still realize that improving your skills is essential. You spent time working as a Criminal. You made a friend of an adventurer. Ernest Shipley, Neutral Good Human Bard that works as a Farmer. Your relationship was friendly. He is alive and quite successful.</t>
+  </si>
+  <si>
+    <t>Necessity forced you to take up the life, since it was the only way you could survive. An experienced rogue saw something in you and taught you several useful tricks. You made an enemy of an adventurer, you were at fault. Andraste O'Leary, Lawful Good Half-Elf Wizard that works as a Soldier. Your relationship was friendly. She is alive, but doing poorly due to injury / finances / relationship.</t>
+  </si>
+  <si>
+    <t>You resented authority in your younger days and saw a life of crime as the best way to fight against tyranny and oppression. While you were growing up, you saw spirits all around you- entities no one else could perceive. You sought out the druids to help you understand the visions and communicate with these beings. A romantic relationship ended amicably.</t>
+  </si>
+  <si>
+    <t>An impassioned sermon struck a chord deep in your soul and moved you to serve the faith. You have always felt disgust for creatures of unnatural origin. For this reason, you immersed yourself in the study of the druidic mysteries and became a champion of the natural order. You spent time working as a Acolyte.</t>
+  </si>
+  <si>
+    <t>You ran away from home at an early age and found refuge in a temple. You befriended a druid and was moved by druidic teachings. You decided to follow your friend's guidance and give something back to the world. You made a friend of an adventurer. Kilvar Ironfist, Lawful Evil Dwarf Paladin that works as a Laborer. Your relationship was friendly. He is alive and quite successful. You started dating. Maynild Barlow, Neutral Human Cleric that works as an Artisan. Your relationship was friendly. She is alive, but doing poorly due to injury / finances / relationship.</t>
+  </si>
+  <si>
+    <t>An impassioned sermon struck a chord deep in your soul and moved you to serve the faith. Sensing something special in you, a stranger taught you how to control your gift. You suffered a tragedy. A family member or a close friend died. You suffered a tragedy. A lover disappeared without a trace. You have been looking for that person ever since.</t>
+  </si>
+  <si>
+    <t>Necessity forced you to take up the life, since it was the only way you could survive. When a monster threatened one of your friends, you became filled with anxiety. You lashed out instinctively and blasted the wretched thing with a force that came from within you.You made an enemy of an adventurer, you were at fault. Radomir Nimblefingers, Neutral Halfling Fighter that works as a Laborer. Your relationship was friendly. He is alive and well.</t>
+  </si>
+  <si>
+    <t>You were naturally curious, so you packed up and went to a university to learn more about the world. Your immediate family never spoke of your ancestors, and when you asked, they would change the subject. It wasn't until you started displaying strange talents that the full truth of your heritage came out. You spent time working as a Sage. You made a friend of an adventurer.Balimaar Moreno, Neutral Evil Human Fighter that works as a Soldier. Your relationship was friendly. He is alive, but doing poorly due to injury / finances / relationship.</t>
+  </si>
+  <si>
+    <t>Your family gave you to a temple, since they were unable or unwilling to care for you. Sensing something special in you, a stranger taught you how to control your gift. You suffered a tragedy. A current or prospective romantic partner of yours died. You suffered a tragedy. War ravaged your home community, reducing everything to rubble and ruin. In the aftermath, you either helped your town rebuild or moved somewhere else. You made an enemy of an adventurer, you were blameless. Diggory Cason, Neutral Human Fighter that works as a Priest. Your relationship was friendly. He is alive and well. You gained a bit of good fortune. You went on an adventure. You nearly died. You have nasty scars on your body, and you are missing a toe. You spent time working as a Acolyte.</t>
+  </si>
+  <si>
+    <t>You were left to your own devices, and your knack for manipulating others helped you survive.You've always been nimble and quick of wit, so you decided to use those talents to help make your way in the world. You gained a bit of good fortune. You once performed a service for a local temple. The next time you visit the temple, you can receive healing up to your hit point maximum. You met someone important. Vilberg Breeden, Neutral Good Half-Orc Ranger that works as a Laborer. Your relationship was friendly. He is alive, but doing poorly due to injury / finances / relationship.</t>
+  </si>
+  <si>
+    <t>You learned early on that people are gullible and easy to exploit. You decided to turn your natural lucky streak into the basis of a career, though you still realize that improving your skills is essential.You made a friend of an adventurer. Thomony Keldingfie, Neutral Human Bard that works as a Priest. Your relationship was indifferent. He is alive and well. You made a friend of an adventurer. Chad Browbridge, Neutral Evil Human Paladin that works as an Artisan. Your relationship was friendly. He is alive and well. You started dating. Gerald Blythe, Neutral Human Bard that works as an Explorer/Wanderer. Your relationship was friendly. He is alive, but doing poorly due to injury / finances / relationship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You took up with a confidence artist, from whom you learned your craft. You decided to turn your natural lucky streak into the basis of a career, though you still realize that improving your skills is essential. You gained a bit of good fortune. </t>
+  </si>
+  <si>
+    <t>You often got in trouble, but you managed to talk your way out of it every time. An assassin or a thief wronged you, so you focused your training on mastering the skills of your enemy to better combat foes of that sort. You gained a bit of good fortune. A friendly alchemist gifted you with a potion of healing or a flask of acid. You gained a bit of good fortune. A distant relative left you a stipend that enables you to live at the comfortable lifestyle for 7 years. If you choose to live at a higher lifestyle, you reduce the price of the lifestyle by 2 gp during that time period.</t>
+  </si>
+  <si>
+    <t>You took up with a confidence artist, from whom you learned your craft. You joined one of the great colleges to learn old lore, the secrets of magic, and the art of performance.You went on an adventure. You nearly died. You have nasty scars on your body, and you are missing two toes.You made an enemy of an adventurer, you were blameless. Trym Hartford, Neutral Good Human Rogue that  works as an Entertainer. Your relationship was friendly. He is alive and quite successful.</t>
+  </si>
+  <si>
+    <t>You were left to your own devices, and your knack for manipulating others helped you survive. Your immediate family never spoke of your ancestors, and when you asked, they would change the subject. It wasn't until you started displaying strange talents that the full truth of your heritage came out. You saw a demon and ran away before it could do anything to you.</t>
+  </si>
+  <si>
+    <t>You were poor or feared becoming poor, so you learned the tricks needed to keep yourself out of poverty. When you were born, all the water in the area froze solid, the milk spoiled, or all the iron turned to copper. Your family was convinced that this event was a harbinger of stranger things to come for you. You fought in a battle. You escaped the battle unscathed, though many of your friends were injured or lost. You made an enemy of an adventurer, you were at fault. Bernard Hadleigh, Neutral Good Human Ranger that works as a Sailor. Your relationship was friendly. He is alive and well.</t>
+  </si>
+  <si>
+    <t>You took up with a confidence artist, from whom you learned your craft. Your immediate family never spoke of your ancestors, and when you asked, they would change the subject. It wasn't until you started displaying strange talents that the full truth of your heritage came out. You suffered a tragedy. A friendship ended bitterly, and the other person is now hostile to you. The cause might have been a misunderstanding or something you or the former friend did.You suffered a tragedy. A romantic relationship ended with bad feelings. You went on an adventure. You suffered a grievous injury. Although the wound healed, it still pains you from time to time. You spent time working as a Charlatan. You went on an adventure. You nearly died. You have nasty scars on your body, and you are missing four toes.</t>
+  </si>
+  <si>
+    <t>You were poor or feared becoming poor, so you learned the tricks needed to keep yourself out of poverty. One of your ancestors left a holy quest unfulfilled, so you intend to finish that work. You spent time working as a Charlatan. You suffered a tragedy. A current or prospective romantic partner of yours died.</t>
+  </si>
+  <si>
+    <t>You took up with a confidence artist, from whom you learned your craft. You served as a paladin's squire, learning all you needed to swear your own sacred oath. Something truly strange happened to you. You were petrified and remained a stone statue for a time until someone freed you. You suffered a tragedy. A lover disappeared without a trace. You have been looking for that person ever since. You made a friend of an adventurer. Paela Goldfound, Lawful Good Halfling Ranger that works as a Criminal. Your relationship was friendly. She is alive and well.</t>
+  </si>
+  <si>
+    <t>You were left to your own devices, and your knack for manipulating others helped you survive. You served as a paladin's squire, learning all you needed to swear your own sacred oath.You spent time working as a Charlatan.</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>You were poor or feared becoming poor, so you learned the tricks needed to keep yourself out of poverty. You felt a calling to recount the deeds of champions and heroes, to bring them alive in song and story. You spent time working as a Charlatan. You gained a bit of good fortune. You fought in a battle. You survived the battle, but you suffer from terrible nightmares in which you relive the experience.</t>
+  </si>
+  <si>
+    <t>You have always stood up for those who are weaker than you are. You picked up a musical instrument one day and instantly discovered that you could play it. You made a friend of an adventurer.Drogo Sharps, Neutral Human Fighter that works as a Laborer. Your relationship was friendly. He is alive and quite successful. You were accused of Smuggling. You committed the crime or helped do so, but nonetheless the authorities found you not guilty. You made a friend of an adventurer. Griselda Burton, Neutral Good Human Warlock that works as a Politician. Your relationship was friendly. She is alive and well.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,16 +310,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -184,16 +627,207 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,247 +1138,531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6DD03B-3715-4825-A834-25BD54DFF423}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="5" max="5" width="102.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
         <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>